--- a/Excel/SCIC0002 - Enter Table CUID.xlsx
+++ b/Excel/SCIC0002 - Enter Table CUID.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1442\Desktop\ICONS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D02070-83C2-4D18-B20C-9B8EB1750A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{21F8FA4B-4C08-4058-AF3C-9F97470BEE21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{5E7B8BF1-A296-4B05-868D-4DC65ED38144}"/>
+    <workbookView xWindow="5115" yWindow="2415" windowWidth="15375" windowHeight="7875" xr2:uid="{5E7B8BF1-A296-4B05-868D-4DC65ED38144}"/>
   </bookViews>
   <sheets>
     <sheet name="sheetname" sheetId="1" r:id="rId1"/>
@@ -549,11 +549,11 @@
         <v>9</v>
       </c>
       <c r="G2" s="1">
-        <v>10000678924</v>
+        <v>10000684961</v>
       </c>
       <c r="H2" s="1" t="str">
         <f>"select * from cuid where cust_no like '%"&amp; LEFT(G2,LEN(G2)-1)&amp;"';"</f>
-        <v>select * from cuid where cust_no like '%1000067892';</v>
+        <v>select * from cuid where cust_no like '%1000068496';</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>12</v>
